--- a/projects/test_building/input/Parameter_CoolingTechnology_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_CoolingTechnology_Lifetime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08A7D1E-F5BE-9E40-B1AD-DF1DB0C3D073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D209AC-CBAB-4943-BBA7-1008ACEA3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="2340" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifetime_tuned" sheetId="3" r:id="rId1"/>
@@ -4597,7 +4597,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/Parameter_CoolingTechnology_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_CoolingTechnology_Lifetime.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D209AC-CBAB-4943-BBA7-1008ACEA3CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="2340" windowWidth="22260" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="2340" windowWidth="22260" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="lifetime_tuned" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lifetime_tuned!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lifetime_tuned (2)'!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -569,7 +568,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -766,7 +765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -848,7 +847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -880,7 +879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -923,7 +922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -953,7 +952,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -967,7 +966,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1134,7 +1133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1193,7 +1192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1236,7 +1235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1266,7 +1265,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1280,7 +1279,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1459,7 +1458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1518,7 +1517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1561,7 +1560,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1591,7 +1590,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1605,7 +1604,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1813,7 +1812,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1851,7 +1850,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1910,7 +1909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1953,7 +1952,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1983,7 +1982,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4284,48 +4283,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F36"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="min"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="max"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min"/>
+    <tableColumn id="5" name="max"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
-  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id_scenario"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="id_building_component"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="min"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="max"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pdf_literature"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="pdf"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="sum_pdf_literature"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="sum_pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="7" name="id_building_component"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="min"/>
+    <tableColumn id="2" name="max"/>
+    <tableColumn id="3" name="pdf_literature"/>
+    <tableColumn id="8" name="pdf"/>
+    <tableColumn id="4" name="sum_pdf_literature"/>
+    <tableColumn id="9" name="sum_pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="id_building_component" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="unit"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="min" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="max" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pdf"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component" dataDxfId="2"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min" dataDxfId="1"/>
+    <tableColumn id="5" name="max" dataDxfId="0"/>
+    <tableColumn id="6" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4593,19 +4592,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4627,33 +4626,33 @@
         <v>3</v>
       </c>
       <c r="C2" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>0.95000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>50.926829268292664</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -5062,7 +5061,7 @@
       </c>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -5090,7 +5089,7 @@
       </c>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -5118,7 +5117,7 @@
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -5146,7 +5145,7 @@
       </c>
       <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -5174,7 +5173,7 @@
       </c>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -5202,7 +5201,7 @@
       </c>
       <c r="J20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -5230,7 +5229,7 @@
       </c>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>24.708333333333332</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -5292,7 +5291,7 @@
       </c>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -5320,7 +5319,7 @@
       </c>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -5348,7 +5347,7 @@
       </c>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -5376,7 +5375,7 @@
       </c>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -5405,7 +5404,7 @@
       <c r="J27" s="19"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J28" s="19"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -5463,7 +5462,7 @@
       <c r="J29" s="19"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="J30" s="19"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -5521,7 +5520,7 @@
       <c r="J31" s="19"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -5553,7 +5552,7 @@
       </c>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -5585,7 +5584,7 @@
       <c r="J33" s="19"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -5614,7 +5613,7 @@
       <c r="J34" s="19"/>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -5643,7 +5642,7 @@
       <c r="J35" s="19"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -5672,7 +5671,7 @@
       <c r="J36" s="19"/>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -5700,7 +5699,7 @@
       </c>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -5728,7 +5727,7 @@
       </c>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -5756,7 +5755,7 @@
       </c>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5784,7 +5783,7 @@
       </c>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -5812,7 +5811,7 @@
       </c>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -5840,7 +5839,7 @@
       </c>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>1</v>
       </c>
@@ -5868,7 +5867,7 @@
       </c>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -5900,28 +5899,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F44" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5981,7 +5980,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6021,7 +6020,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6221,7 +6220,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6261,7 +6260,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6361,7 +6360,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6651,27 +6650,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>0.61176470588235299</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>4.2352941176470589</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>3.2470588235294118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>3.9529411764705884</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>6.2117647058823531</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>3.5764705882352943</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7394,7 +7393,7 @@
         <v>4.0470588235294116</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7425,7 +7424,7 @@
         <v>2.2588235294117647</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7565,7 +7564,7 @@
         <v>28.229411764705883</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7705,7 +7704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8251,20 +8250,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1</v>
       </c>
